--- a/STM32/gfx_expboard_pinmap.xlsx
+++ b/STM32/gfx_expboard_pinmap.xlsx
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>GFX01M1  pin name</t>
   </si>
   <si>
     <t>NUCLEO-F746</t>
+  </si>
+  <si>
+    <t>NUCLEO-G474RE</t>
   </si>
   <si>
     <t>CN2-28  LCD TE</t>
@@ -1007,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1023,68 +1026,92 @@
     <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/STM32/gfx_expboard_pinmap.xlsx
+++ b/STM32/gfx_expboard_pinmap.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>GFX01M1  pin name</t>
   </si>
@@ -80,6 +80,21 @@
   </si>
   <si>
     <t>PB3</t>
+  </si>
+  <si>
+    <t>GFX01M2  pin name</t>
+  </si>
+  <si>
+    <t>CN3-21  LCD CS</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>CN3-25  LCD DCX/WR</t>
+  </si>
+  <si>
+    <t>PB10</t>
   </si>
 </sst>
 </file>
@@ -1010,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1112,6 +1127,90 @@
       </c>
       <c r="C8" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/STM32/gfx_expboard_pinmap.xlsx
+++ b/STM32/gfx_expboard_pinmap.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>GFX01M1  pin name</t>
   </si>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1199,7 +1199,9 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16"/>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -1208,7 +1210,9 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
